--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.823996</v>
+        <v>3.5407345</v>
       </c>
       <c r="H2">
-        <v>3.647992</v>
+        <v>7.081469</v>
       </c>
       <c r="I2">
-        <v>0.04519532258275597</v>
+        <v>0.1256069105701488</v>
       </c>
       <c r="J2">
-        <v>0.03907135622362175</v>
+        <v>0.1041888714822327</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N2">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O2">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P2">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q2">
-        <v>4.655957725544</v>
+        <v>24.387290408642</v>
       </c>
       <c r="R2">
-        <v>18.623830902176</v>
+        <v>97.54916163456801</v>
       </c>
       <c r="S2">
-        <v>0.002438537486556256</v>
+        <v>0.01981763276190923</v>
       </c>
       <c r="T2">
-        <v>0.001644653231107325</v>
+        <v>0.01285693662665159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.823996</v>
+        <v>3.5407345</v>
       </c>
       <c r="H3">
-        <v>3.647992</v>
+        <v>7.081469</v>
       </c>
       <c r="I3">
-        <v>0.04519532258275597</v>
+        <v>0.1256069105701488</v>
       </c>
       <c r="J3">
-        <v>0.03907135622362175</v>
+        <v>0.1041888714822327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>68.241472</v>
       </c>
       <c r="O3">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P3">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q3">
-        <v>41.49072398737066</v>
+        <v>80.54164474706134</v>
       </c>
       <c r="R3">
-        <v>248.944343924224</v>
+        <v>483.249868482368</v>
       </c>
       <c r="S3">
-        <v>0.02173058514523793</v>
+        <v>0.06544985977908391</v>
       </c>
       <c r="T3">
-        <v>0.02198404408585082</v>
+        <v>0.06369212025820027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.823996</v>
+        <v>3.5407345</v>
       </c>
       <c r="H4">
-        <v>3.647992</v>
+        <v>7.081469</v>
       </c>
       <c r="I4">
-        <v>0.04519532258275597</v>
+        <v>0.1256069105701488</v>
       </c>
       <c r="J4">
-        <v>0.03907135622362175</v>
+        <v>0.1041888714822327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N4">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O4">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P4">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q4">
-        <v>0.5137758972959999</v>
+        <v>0.804893929478</v>
       </c>
       <c r="R4">
-        <v>3.082655383776</v>
+        <v>4.829363576868</v>
       </c>
       <c r="S4">
-        <v>0.00026908787817634</v>
+        <v>0.0006540739885162708</v>
       </c>
       <c r="T4">
-        <v>0.0002722264374041982</v>
+        <v>0.0006365079967314503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.823996</v>
+        <v>3.5407345</v>
       </c>
       <c r="H5">
-        <v>3.647992</v>
+        <v>7.081469</v>
       </c>
       <c r="I5">
-        <v>0.04519532258275597</v>
+        <v>0.1256069105701488</v>
       </c>
       <c r="J5">
-        <v>0.03907135622362175</v>
+        <v>0.1041888714822327</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N5">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O5">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P5">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q5">
-        <v>33.002182522634</v>
+        <v>44.06781340211126</v>
       </c>
       <c r="R5">
-        <v>132.008730090536</v>
+        <v>176.271253608445</v>
       </c>
       <c r="S5">
-        <v>0.01728474869479443</v>
+        <v>0.03581044585067591</v>
       </c>
       <c r="T5">
-        <v>0.01165756850017404</v>
+        <v>0.02323247374727932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.823996</v>
+        <v>3.5407345</v>
       </c>
       <c r="H6">
-        <v>3.647992</v>
+        <v>7.081469</v>
       </c>
       <c r="I6">
-        <v>0.04519532258275597</v>
+        <v>0.1256069105701488</v>
       </c>
       <c r="J6">
-        <v>0.03907135622362175</v>
+        <v>0.1041888714822327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N6">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O6">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P6">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q6">
-        <v>5.800146768352</v>
+        <v>3.029575183662667</v>
       </c>
       <c r="R6">
-        <v>34.800880610112</v>
+        <v>18.177451101976</v>
       </c>
       <c r="S6">
-        <v>0.003037801491314424</v>
+        <v>0.002461897464145697</v>
       </c>
       <c r="T6">
-        <v>0.003073233484637878</v>
+        <v>0.002395780065518741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.823996</v>
+        <v>3.5407345</v>
       </c>
       <c r="H7">
-        <v>3.647992</v>
+        <v>7.081469</v>
       </c>
       <c r="I7">
-        <v>0.04519532258275597</v>
+        <v>0.1256069105701488</v>
       </c>
       <c r="J7">
-        <v>0.03907135622362175</v>
+        <v>0.1041888714822327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N7">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O7">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P7">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q7">
-        <v>0.8297193644359999</v>
+        <v>1.738818125360167</v>
       </c>
       <c r="R7">
-        <v>4.978316186616</v>
+        <v>10.432908752161</v>
       </c>
       <c r="S7">
-        <v>0.000434561886676584</v>
+        <v>0.001413000725817743</v>
       </c>
       <c r="T7">
-        <v>0.000439630484447497</v>
+        <v>0.00137505278785133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>30.803078</v>
       </c>
       <c r="I8">
-        <v>0.2544148574068134</v>
+        <v>0.3642445245594586</v>
       </c>
       <c r="J8">
-        <v>0.3299124650827102</v>
+        <v>0.453202285429646</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N8">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O8">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P8">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q8">
-        <v>26.20945604863067</v>
+        <v>70.72012964786934</v>
       </c>
       <c r="R8">
-        <v>157.256736291784</v>
+        <v>424.320777887216</v>
       </c>
       <c r="S8">
-        <v>0.01372708792568922</v>
+        <v>0.05746868695750797</v>
       </c>
       <c r="T8">
-        <v>0.01388719650721574</v>
+        <v>0.05592529201946742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>30.803078</v>
       </c>
       <c r="I9">
-        <v>0.2544148574068134</v>
+        <v>0.3642445245594586</v>
       </c>
       <c r="J9">
-        <v>0.3299124650827102</v>
+        <v>0.453202285429646</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>68.241472</v>
       </c>
       <c r="O9">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P9">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q9">
         <v>233.5608205389796</v>
@@ -1013,10 +1013,10 @@
         <v>2102.047384850816</v>
       </c>
       <c r="S9">
-        <v>0.1223264578091921</v>
+        <v>0.1897965084047001</v>
       </c>
       <c r="T9">
-        <v>0.1856298546520665</v>
+        <v>0.2770489213888705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>30.803078</v>
       </c>
       <c r="I10">
-        <v>0.2544148574068134</v>
+        <v>0.3642445245594586</v>
       </c>
       <c r="J10">
-        <v>0.3299124650827102</v>
+        <v>0.453202285429646</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N10">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O10">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P10">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q10">
-        <v>2.892162599576</v>
+        <v>2.334092967757333</v>
       </c>
       <c r="R10">
-        <v>26.029463396184</v>
+        <v>21.006836709816</v>
       </c>
       <c r="S10">
-        <v>0.001514757506836692</v>
+        <v>0.001896733769602304</v>
       </c>
       <c r="T10">
-        <v>0.002298637767030091</v>
+        <v>0.00276869184500315</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>30.803078</v>
       </c>
       <c r="I11">
-        <v>0.2544148574068134</v>
+        <v>0.3642445245594586</v>
       </c>
       <c r="J11">
-        <v>0.3299124650827102</v>
+        <v>0.453202285429646</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N11">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O11">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P11">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q11">
-        <v>185.7768698350457</v>
+        <v>127.7912152139317</v>
       </c>
       <c r="R11">
-        <v>1114.661219010274</v>
+        <v>766.74729128359</v>
       </c>
       <c r="S11">
-        <v>0.09729982270724116</v>
+        <v>0.1038458693389885</v>
       </c>
       <c r="T11">
-        <v>0.09843469826721216</v>
+        <v>0.1010569559748687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>30.803078</v>
       </c>
       <c r="I12">
-        <v>0.2544148574068134</v>
+        <v>0.3642445245594586</v>
       </c>
       <c r="J12">
-        <v>0.3299124650827102</v>
+        <v>0.453202285429646</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N12">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O12">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P12">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q12">
-        <v>32.65035912304533</v>
+        <v>8.785393792279111</v>
       </c>
       <c r="R12">
-        <v>293.853232107408</v>
+        <v>79.068544130512</v>
       </c>
       <c r="S12">
-        <v>0.01710048272866727</v>
+        <v>0.0071391985303315</v>
       </c>
       <c r="T12">
-        <v>0.02594990634286268</v>
+        <v>0.01042119936259255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>30.803078</v>
       </c>
       <c r="I13">
-        <v>0.2544148574068134</v>
+        <v>0.3642445245594586</v>
       </c>
       <c r="J13">
-        <v>0.3299124650827102</v>
+        <v>0.453202285429646</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N13">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O13">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P13">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q13">
-        <v>4.670680984832667</v>
+        <v>5.042357769109111</v>
       </c>
       <c r="R13">
-        <v>42.036128863494</v>
+        <v>45.38121992198199</v>
       </c>
       <c r="S13">
-        <v>0.002446248729186902</v>
+        <v>0.004097527558328227</v>
       </c>
       <c r="T13">
-        <v>0.003712171546323028</v>
+        <v>0.005981224838843744</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.279608</v>
+        <v>0.117704</v>
       </c>
       <c r="H14">
-        <v>0.838824</v>
+        <v>0.353112</v>
       </c>
       <c r="I14">
-        <v>0.0069281806301764</v>
+        <v>0.004175527931209976</v>
       </c>
       <c r="J14">
-        <v>0.008984118197880723</v>
+        <v>0.005195297866422087</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N14">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O14">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P14">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q14">
-        <v>0.7137312953120001</v>
+        <v>0.810702307744</v>
       </c>
       <c r="R14">
-        <v>4.282387771872</v>
+        <v>4.864213846464</v>
       </c>
       <c r="S14">
-        <v>0.0003738136429800403</v>
+        <v>0.0006587940006819951</v>
       </c>
       <c r="T14">
-        <v>0.0003781736916995351</v>
+        <v>0.0006411012469461064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.279608</v>
+        <v>0.117704</v>
       </c>
       <c r="H15">
-        <v>0.838824</v>
+        <v>0.353112</v>
       </c>
       <c r="I15">
-        <v>0.0069281806301764</v>
+        <v>0.004175527931209976</v>
       </c>
       <c r="J15">
-        <v>0.008984118197880723</v>
+        <v>0.005195297866422087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>68.241472</v>
       </c>
       <c r="O15">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P15">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q15">
-        <v>6.360287167658667</v>
+        <v>2.677431406762667</v>
       </c>
       <c r="R15">
-        <v>57.242584508928</v>
+        <v>24.096882660864</v>
       </c>
       <c r="S15">
-        <v>0.003331172574550431</v>
+        <v>0.002175737914107169</v>
       </c>
       <c r="T15">
-        <v>0.005055039538537839</v>
+        <v>0.003175958543151656</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.279608</v>
+        <v>0.117704</v>
       </c>
       <c r="H16">
-        <v>0.838824</v>
+        <v>0.353112</v>
       </c>
       <c r="I16">
-        <v>0.0069281806301764</v>
+        <v>0.004175527931209976</v>
       </c>
       <c r="J16">
-        <v>0.008984118197880723</v>
+        <v>0.005195297866422087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N16">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O16">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P16">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q16">
-        <v>0.078758863008</v>
+        <v>0.026756944096</v>
       </c>
       <c r="R16">
-        <v>0.708829767072</v>
+        <v>0.240812496864</v>
       </c>
       <c r="S16">
-        <v>4.124960989011493E-05</v>
+        <v>2.174326393134507E-05</v>
       </c>
       <c r="T16">
-        <v>6.25960992044772E-05</v>
+        <v>3.173898123988623E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.279608</v>
+        <v>0.117704</v>
       </c>
       <c r="H17">
-        <v>0.838824</v>
+        <v>0.353112</v>
       </c>
       <c r="I17">
-        <v>0.0069281806301764</v>
+        <v>0.004175527931209976</v>
       </c>
       <c r="J17">
-        <v>0.008984118197880723</v>
+        <v>0.005195297866422087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N17">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O17">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P17">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q17">
-        <v>5.059043030132001</v>
+        <v>1.46493839306</v>
       </c>
       <c r="R17">
-        <v>30.354258180792</v>
+        <v>8.78963035836</v>
       </c>
       <c r="S17">
-        <v>0.002649651651129762</v>
+        <v>0.001190440209060566</v>
       </c>
       <c r="T17">
-        <v>0.002680556382686691</v>
+        <v>0.001158469417835381</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.279608</v>
+        <v>0.117704</v>
       </c>
       <c r="H18">
-        <v>0.838824</v>
+        <v>0.353112</v>
       </c>
       <c r="I18">
-        <v>0.0069281806301764</v>
+        <v>0.004175527931209976</v>
       </c>
       <c r="J18">
-        <v>0.008984118197880723</v>
+        <v>0.005195297866422087</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N18">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O18">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P18">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q18">
-        <v>0.889128834496</v>
+        <v>0.1007116228053333</v>
       </c>
       <c r="R18">
-        <v>8.002159510463999</v>
+        <v>0.9064046052479999</v>
       </c>
       <c r="S18">
-        <v>0.0004656773366736788</v>
+        <v>8.184041450151237E-05</v>
       </c>
       <c r="T18">
-        <v>0.0007066632833947781</v>
+        <v>0.0001194637285703649</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.279608</v>
+        <v>0.117704</v>
       </c>
       <c r="H19">
-        <v>0.838824</v>
+        <v>0.353112</v>
       </c>
       <c r="I19">
-        <v>0.0069281806301764</v>
+        <v>0.004175527931209976</v>
       </c>
       <c r="J19">
-        <v>0.008984118197880723</v>
+        <v>0.005195297866422087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N19">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O19">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P19">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q19">
-        <v>0.127191162728</v>
+        <v>0.05780321812533332</v>
       </c>
       <c r="R19">
-        <v>1.144720464552</v>
+        <v>0.5202289631279999</v>
       </c>
       <c r="S19">
-        <v>6.661581495237177E-05</v>
+        <v>4.697212892738825E-05</v>
       </c>
       <c r="T19">
-        <v>0.000101089202357403</v>
+        <v>6.856594867869347E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.8827875</v>
+        <v>13.0586825</v>
       </c>
       <c r="H20">
-        <v>51.765575</v>
+        <v>26.117365</v>
       </c>
       <c r="I20">
-        <v>0.6413286708980853</v>
+        <v>0.463254379830362</v>
       </c>
       <c r="J20">
-        <v>0.554428633874638</v>
+        <v>0.3842619074431537</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N20">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O20">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P20">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q20">
-        <v>66.068765731525</v>
+        <v>89.94345169957001</v>
       </c>
       <c r="R20">
-        <v>264.2750629261</v>
+        <v>359.77380679828</v>
       </c>
       <c r="S20">
-        <v>0.03460322696723001</v>
+        <v>0.07308996880149324</v>
       </c>
       <c r="T20">
-        <v>0.02333788565980368</v>
+        <v>0.0474180296009385</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.8827875</v>
+        <v>13.0586825</v>
       </c>
       <c r="H21">
-        <v>51.765575</v>
+        <v>26.117365</v>
       </c>
       <c r="I21">
-        <v>0.6413286708980853</v>
+        <v>0.463254379830362</v>
       </c>
       <c r="J21">
-        <v>0.554428633874638</v>
+        <v>0.3842619074431537</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>68.241472</v>
       </c>
       <c r="O21">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P21">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q21">
-        <v>588.7598394877333</v>
+        <v>297.0479053935467</v>
       </c>
       <c r="R21">
-        <v>3532.5590369264</v>
+        <v>1782.28743236128</v>
       </c>
       <c r="S21">
-        <v>0.3083603898061454</v>
+        <v>0.241387468765189</v>
       </c>
       <c r="T21">
-        <v>0.3119570116736596</v>
+        <v>0.2349047001981243</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.8827875</v>
+        <v>13.0586825</v>
       </c>
       <c r="H22">
-        <v>51.765575</v>
+        <v>26.117365</v>
       </c>
       <c r="I22">
-        <v>0.6413286708980853</v>
+        <v>0.463254379830362</v>
       </c>
       <c r="J22">
-        <v>0.554428633874638</v>
+        <v>0.3842619074431537</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N22">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O22">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P22">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q22">
-        <v>7.290560051849999</v>
+        <v>2.96855194063</v>
       </c>
       <c r="R22">
-        <v>43.7433603111</v>
+        <v>17.81131164378</v>
       </c>
       <c r="S22">
-        <v>0.00381839892722577</v>
+        <v>0.002412308674243332</v>
       </c>
       <c r="T22">
-        <v>0.003862935571796712</v>
+        <v>0.002347523045861543</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.8827875</v>
+        <v>13.0586825</v>
       </c>
       <c r="H23">
-        <v>51.765575</v>
+        <v>26.117365</v>
       </c>
       <c r="I23">
-        <v>0.6413286708980853</v>
+        <v>0.463254379830362</v>
       </c>
       <c r="J23">
-        <v>0.554428633874638</v>
+        <v>0.3842619074431537</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N23">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O23">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P23">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q23">
-        <v>468.3061132094313</v>
+        <v>162.5277421075812</v>
       </c>
       <c r="R23">
-        <v>1873.224452837725</v>
+        <v>650.110968430325</v>
       </c>
       <c r="S23">
-        <v>0.245273277714571</v>
+        <v>0.1320735125854308</v>
       </c>
       <c r="T23">
-        <v>0.1654227137870359</v>
+        <v>0.08568433988916872</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.8827875</v>
+        <v>13.0586825</v>
       </c>
       <c r="H24">
-        <v>51.765575</v>
+        <v>26.117365</v>
       </c>
       <c r="I24">
-        <v>0.6413286708980853</v>
+        <v>0.463254379830362</v>
       </c>
       <c r="J24">
-        <v>0.554428633874638</v>
+        <v>0.3842619074431537</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N24">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O24">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P24">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q24">
-        <v>82.30498656469999</v>
+        <v>11.17346144799333</v>
       </c>
       <c r="R24">
-        <v>493.8299193882</v>
+        <v>67.04076868796</v>
       </c>
       <c r="S24">
-        <v>0.04310687658683151</v>
+        <v>0.009079793283521766</v>
       </c>
       <c r="T24">
-        <v>0.04360966209397756</v>
+        <v>0.008835943845955815</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.8827875</v>
+        <v>13.0586825</v>
       </c>
       <c r="H25">
-        <v>51.765575</v>
+        <v>26.117365</v>
       </c>
       <c r="I25">
-        <v>0.6413286708980853</v>
+        <v>0.463254379830362</v>
       </c>
       <c r="J25">
-        <v>0.554428633874638</v>
+        <v>0.3842619074431537</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N25">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O25">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P25">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q25">
-        <v>11.7738470886625</v>
+        <v>6.412984036030833</v>
       </c>
       <c r="R25">
-        <v>70.643082531975</v>
+        <v>38.477904216185</v>
       </c>
       <c r="S25">
-        <v>0.006166500896081518</v>
+        <v>0.005211327720483831</v>
       </c>
       <c r="T25">
-        <v>0.006238425088364568</v>
+        <v>0.005071370863104921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.651045666666667</v>
+        <v>0.9780506666666667</v>
       </c>
       <c r="H26">
-        <v>4.953137</v>
+        <v>2.934152</v>
       </c>
       <c r="I26">
-        <v>0.04090992606555134</v>
+        <v>0.03469616900704484</v>
       </c>
       <c r="J26">
-        <v>0.05304994642296397</v>
+        <v>0.0431698543956538</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N26">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O26">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P26">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q26">
-        <v>4.214482283372667</v>
+        <v>6.736456981557335</v>
       </c>
       <c r="R26">
-        <v>25.286893700236</v>
+        <v>40.41874188934401</v>
       </c>
       <c r="S26">
-        <v>0.002207316655399974</v>
+        <v>0.005474188740935108</v>
       </c>
       <c r="T26">
-        <v>0.002233062126004454</v>
+        <v>0.005327172415350971</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.651045666666667</v>
+        <v>0.9780506666666667</v>
       </c>
       <c r="H27">
-        <v>4.953137</v>
+        <v>2.934152</v>
       </c>
       <c r="I27">
-        <v>0.04090992606555134</v>
+        <v>0.03469616900704484</v>
       </c>
       <c r="J27">
-        <v>0.05304994642296397</v>
+        <v>0.0431698543956538</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>68.241472</v>
       </c>
       <c r="O27">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P27">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q27">
-        <v>37.55659554418489</v>
+        <v>22.24787239463823</v>
       </c>
       <c r="R27">
-        <v>338.009359897664</v>
+        <v>200.230851551744</v>
       </c>
       <c r="S27">
-        <v>0.01967010258694434</v>
+        <v>0.01807909601529651</v>
       </c>
       <c r="T27">
-        <v>0.02984929302785173</v>
+        <v>0.02639033822499808</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.651045666666667</v>
+        <v>0.9780506666666667</v>
       </c>
       <c r="H28">
-        <v>4.953137</v>
+        <v>2.934152</v>
       </c>
       <c r="I28">
-        <v>0.04090992606555134</v>
+        <v>0.03469616900704484</v>
       </c>
       <c r="J28">
-        <v>0.05304994642296397</v>
+        <v>0.0431698543956538</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N28">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O28">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P28">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q28">
-        <v>0.465059939204</v>
+        <v>0.2223343897493333</v>
       </c>
       <c r="R28">
-        <v>4.185539452836</v>
+        <v>2.001009507744</v>
       </c>
       <c r="S28">
-        <v>0.0002435731082828986</v>
+        <v>0.0001806736711034573</v>
       </c>
       <c r="T28">
-        <v>0.0003696211064840379</v>
+        <v>0.0002637321735964076</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.651045666666667</v>
+        <v>0.9780506666666667</v>
       </c>
       <c r="H29">
-        <v>4.953137</v>
+        <v>2.934152</v>
       </c>
       <c r="I29">
-        <v>0.04090992606555134</v>
+        <v>0.03469616900704484</v>
       </c>
       <c r="J29">
-        <v>0.05304994642296397</v>
+        <v>0.0431698543956538</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N29">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O29">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P29">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q29">
-        <v>29.87293307909517</v>
+        <v>12.17277213992667</v>
       </c>
       <c r="R29">
-        <v>179.237598474571</v>
+        <v>73.03663283956</v>
       </c>
       <c r="S29">
-        <v>0.01564581799080846</v>
+        <v>0.009891854483267284</v>
       </c>
       <c r="T29">
-        <v>0.01582830605665981</v>
+        <v>0.00962619610571297</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.651045666666667</v>
+        <v>0.9780506666666667</v>
       </c>
       <c r="H30">
-        <v>4.953137</v>
+        <v>2.934152</v>
       </c>
       <c r="I30">
-        <v>0.04090992606555134</v>
+        <v>0.03469616900704484</v>
       </c>
       <c r="J30">
-        <v>0.05304994642296397</v>
+        <v>0.0431698543956538</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N30">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O30">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P30">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q30">
-        <v>5.250179927981333</v>
+        <v>0.8368540561564445</v>
       </c>
       <c r="R30">
-        <v>47.251619351832</v>
+        <v>7.531686505408</v>
       </c>
       <c r="S30">
-        <v>0.002749758765056621</v>
+        <v>0.0006800454696822581</v>
       </c>
       <c r="T30">
-        <v>0.00417274667334764</v>
+        <v>0.0009926729709332832</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.651045666666667</v>
+        <v>0.9780506666666667</v>
       </c>
       <c r="H31">
-        <v>4.953137</v>
+        <v>2.934152</v>
       </c>
       <c r="I31">
-        <v>0.04090992606555134</v>
+        <v>0.03469616900704484</v>
       </c>
       <c r="J31">
-        <v>0.05304994642296397</v>
+        <v>0.0431698543956538</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N31">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O31">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P31">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q31">
-        <v>0.7510458143556666</v>
+        <v>0.4803105758764444</v>
       </c>
       <c r="R31">
-        <v>6.759412329201</v>
+        <v>4.322795182888</v>
       </c>
       <c r="S31">
-        <v>0.0003933569590590467</v>
+        <v>0.000390310626760218</v>
       </c>
       <c r="T31">
-        <v>0.0005969174326163056</v>
+        <v>0.0005697425050620931</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.4529403333333333</v>
+        <v>0.226146</v>
       </c>
       <c r="H32">
-        <v>1.358821</v>
+        <v>0.678438</v>
       </c>
       <c r="I32">
-        <v>0.0112230424166177</v>
+        <v>0.008022488101775737</v>
       </c>
       <c r="J32">
-        <v>0.01455348019818517</v>
+        <v>0.00998178338289174</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N32">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O32">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P32">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q32">
-        <v>1.156181836031333</v>
+        <v>1.557611330856</v>
       </c>
       <c r="R32">
-        <v>6.937091016188</v>
+        <v>9.345667985136</v>
       </c>
       <c r="S32">
-        <v>0.0006055451777342819</v>
+        <v>0.001265748216528159</v>
       </c>
       <c r="T32">
-        <v>0.0006126080726455775</v>
+        <v>0.001231754932643531</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.4529403333333333</v>
+        <v>0.226146</v>
       </c>
       <c r="H33">
-        <v>1.358821</v>
+        <v>0.678438</v>
       </c>
       <c r="I33">
-        <v>0.0112230424166177</v>
+        <v>0.008022488101775737</v>
       </c>
       <c r="J33">
-        <v>0.01455348019818517</v>
+        <v>0.00998178338289174</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>68.241472</v>
       </c>
       <c r="O33">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P33">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q33">
-        <v>10.30310502494578</v>
+        <v>5.144178642303999</v>
       </c>
       <c r="R33">
-        <v>92.72794522451198</v>
+        <v>46.297607780736</v>
       </c>
       <c r="S33">
-        <v>0.005396206175458963</v>
+        <v>0.004180269373374566</v>
       </c>
       <c r="T33">
-        <v>0.008188718826351565</v>
+        <v>0.006102004355838157</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.4529403333333333</v>
+        <v>0.226146</v>
       </c>
       <c r="H34">
-        <v>1.358821</v>
+        <v>0.678438</v>
       </c>
       <c r="I34">
-        <v>0.0112230424166177</v>
+        <v>0.008022488101775737</v>
       </c>
       <c r="J34">
-        <v>0.01455348019818517</v>
+        <v>0.00998178338289174</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N34">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O34">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P34">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q34">
-        <v>0.127582421332</v>
+        <v>0.051408413304</v>
       </c>
       <c r="R34">
-        <v>1.148241791988</v>
+        <v>0.462675719736</v>
       </c>
       <c r="S34">
-        <v>6.682073493426016E-05</v>
+        <v>4.177557402482467E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001014001675168175</v>
+        <v>6.09804564965958E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.4529403333333333</v>
+        <v>0.226146</v>
       </c>
       <c r="H35">
-        <v>1.358821</v>
+        <v>0.678438</v>
       </c>
       <c r="I35">
-        <v>0.0112230424166177</v>
+        <v>0.008022488101775737</v>
       </c>
       <c r="J35">
-        <v>0.01455348019818517</v>
+        <v>0.00998178338289174</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N35">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O35">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P35">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q35">
-        <v>8.195204130123832</v>
+        <v>2.814602374065</v>
       </c>
       <c r="R35">
-        <v>49.171224780743</v>
+        <v>16.88761424439</v>
       </c>
       <c r="S35">
-        <v>0.004292202304940958</v>
+        <v>0.002287205970215206</v>
       </c>
       <c r="T35">
-        <v>0.004342265248107722</v>
+        <v>0.002225780134624142</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.4529403333333333</v>
+        <v>0.226146</v>
       </c>
       <c r="H36">
-        <v>1.358821</v>
+        <v>0.678438</v>
       </c>
       <c r="I36">
-        <v>0.0112230424166177</v>
+        <v>0.008022488101775737</v>
       </c>
       <c r="J36">
-        <v>0.01455348019818517</v>
+        <v>0.00998178338289174</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N36">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O36">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P36">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q36">
-        <v>1.440310401250666</v>
+        <v>0.193498357328</v>
       </c>
       <c r="R36">
-        <v>12.962793611256</v>
+        <v>1.741485215952</v>
       </c>
       <c r="S36">
-        <v>0.0007543562705600517</v>
+        <v>0.0001572408956183223</v>
       </c>
       <c r="T36">
-        <v>0.001144732279245438</v>
+        <v>0.0002295269860095982</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.4529403333333333</v>
+        <v>0.226146</v>
       </c>
       <c r="H37">
-        <v>1.358821</v>
+        <v>0.678438</v>
       </c>
       <c r="I37">
-        <v>0.0112230424166177</v>
+        <v>0.008022488101775737</v>
       </c>
       <c r="J37">
-        <v>0.01455348019818517</v>
+        <v>0.00998178338289174</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N37">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O37">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P37">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q37">
-        <v>0.2060384811703333</v>
+        <v>0.111057963758</v>
       </c>
       <c r="R37">
-        <v>1.854346330533</v>
+        <v>0.999521673822</v>
       </c>
       <c r="S37">
-        <v>0.000107911752989181</v>
+        <v>9.024807201465663E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001637556043180556</v>
+        <v>0.000131736517279717</v>
       </c>
     </row>
   </sheetData>
